--- a/doc/tables/VRML_management_history.xlsx
+++ b/doc/tables/VRML_management_history.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>N_OFLOverfishing Limit</t>
   </si>
@@ -72,13 +72,19 @@
   </si>
   <si>
     <t>Area_landings</t>
+  </si>
+  <si>
+    <t>N_GEMM_RES</t>
+  </si>
+  <si>
+    <t>S_GEMM_RES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +95,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,11 +151,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,7 +181,6 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -168,6 +190,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -468,45 +494,45 @@
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="9">
         <v>2011</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="9">
         <v>2012</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="9">
         <v>2013</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="9">
         <v>2014</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="9">
         <v>2015</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="9">
         <v>2016</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="9">
         <v>2017</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="9">
         <v>2018</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="9">
         <v>2019</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="9">
         <v>2020</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="9">
         <v>2021</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="9">
         <v>2022</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -547,7 +573,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -588,411 +614,460 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
-        <v>14.784128806</v>
-      </c>
-      <c r="C4" s="6">
-        <v>18.333635806</v>
-      </c>
-      <c r="D4" s="6">
-        <v>13.630323047999999</v>
-      </c>
-      <c r="E4" s="6">
-        <v>10.072140719</v>
-      </c>
-      <c r="F4" s="6">
-        <v>12.820693877</v>
-      </c>
-      <c r="G4" s="6">
-        <v>11.491954249000001</v>
-      </c>
-      <c r="H4" s="6">
-        <v>19.995654640999998</v>
-      </c>
-      <c r="I4" s="6">
-        <v>21.984027053000002</v>
-      </c>
-      <c r="J4" s="6">
-        <v>24.561973902999995</v>
+      <c r="B4" s="10">
+        <v>15.957828368000003</v>
+      </c>
+      <c r="C4" s="10">
+        <v>19.19076055</v>
+      </c>
+      <c r="D4" s="10">
+        <v>14.854865627000001</v>
+      </c>
+      <c r="E4" s="10">
+        <v>11.128733288000001</v>
+      </c>
+      <c r="F4" s="10">
+        <v>14.520705443999999</v>
+      </c>
+      <c r="G4" s="10">
+        <v>12.774068973</v>
+      </c>
+      <c r="H4" s="10">
+        <v>21.284937983000003</v>
+      </c>
+      <c r="I4" s="10">
+        <v>23.612898744999999</v>
+      </c>
+      <c r="J4" s="10">
+        <v>26.891223343</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7">
-        <v>4.1991916280000003</v>
-      </c>
-      <c r="C5" s="7">
-        <v>4.8531101269999999</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2.652540272</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2.9362100990000002</v>
-      </c>
-      <c r="F5" s="7">
-        <v>4.9981245999999997</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4.5290635440000004</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6.4562343010000003</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7.5906183440000001</v>
-      </c>
-      <c r="J5" s="7">
-        <v>7.8490824559999997</v>
+      <c r="B5">
+        <v>4.2208766730000002</v>
+      </c>
+      <c r="C5">
+        <v>4.8845030339999997</v>
+      </c>
+      <c r="D5">
+        <v>2.6750009179999998</v>
+      </c>
+      <c r="E5">
+        <v>2.9707335719999999</v>
+      </c>
+      <c r="F5">
+        <v>5.0663585649999998</v>
+      </c>
+      <c r="G5">
+        <v>4.5897512130000004</v>
+      </c>
+      <c r="H5">
+        <v>6.5573322190000001</v>
+      </c>
+      <c r="I5">
+        <v>7.7476158799999997</v>
+      </c>
+      <c r="J5">
+        <v>7.9633027949999997</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7">
-        <v>3.8786627950000003</v>
-      </c>
-      <c r="C6" s="7">
-        <v>3.7423218730000003</v>
-      </c>
-      <c r="D6" s="7">
-        <v>3.8510387379999997</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2.61734555</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2.5832259820000005</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2.7573247919999999</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4.4390592389999997</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4.5426904559999999</v>
-      </c>
-      <c r="J6" s="7">
-        <v>5.7842964710000002</v>
+      <c r="B6">
+        <v>6.5099953040000003</v>
+      </c>
+      <c r="C6">
+        <v>9.4302280649999997</v>
+      </c>
+      <c r="D6">
+        <v>6.642596502</v>
+      </c>
+      <c r="E6">
+        <v>4.2995934370000004</v>
+      </c>
+      <c r="F6">
+        <v>5.3150448389999996</v>
+      </c>
+      <c r="G6">
+        <v>4.005105125</v>
+      </c>
+      <c r="H6">
+        <v>9.0758563980000009</v>
+      </c>
+      <c r="I6">
+        <v>9.4776576630000005</v>
+      </c>
+      <c r="J6">
+        <v>10.042918278</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7">
-        <v>5.8674589900000003</v>
-      </c>
-      <c r="C7" s="7">
-        <v>8.9025092370000003</v>
-      </c>
-      <c r="D7" s="7">
-        <v>6.0243485019999996</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3.7277140370000001</v>
-      </c>
-      <c r="F7" s="7">
-        <v>4.2044064670000001</v>
-      </c>
-      <c r="G7" s="7">
-        <v>3.400105296</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8.4841047409999994</v>
-      </c>
-      <c r="I7" s="7">
-        <v>8.7755045769999995</v>
-      </c>
-      <c r="J7" s="7">
-        <v>8.5569150490000006</v>
+      <c r="B7">
+        <v>1.2044755410000001</v>
+      </c>
+      <c r="C7">
+        <v>1.0625501230000001</v>
+      </c>
+      <c r="D7">
+        <v>1.5385199409999999</v>
+      </c>
+      <c r="E7">
+        <v>1.195916038</v>
+      </c>
+      <c r="F7">
+        <v>1.327752885</v>
+      </c>
+      <c r="G7">
+        <v>1.23695311</v>
+      </c>
+      <c r="H7">
+        <v>0.92312060399999996</v>
+      </c>
+      <c r="I7">
+        <v>1.2969511380000001</v>
+      </c>
+      <c r="J7">
+        <v>2.764097558</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.83881539299999996</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.83569456900000005</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1.102395536</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.79087103299999995</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1.034936828</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.80546061700000005</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0.61625635999999995</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1.075213676</v>
-      </c>
-      <c r="J8" s="7">
-        <v>2.3716799270000002</v>
+      <c r="B8">
+        <v>4.0204808500000002</v>
+      </c>
+      <c r="C8">
+        <v>3.8134793280000001</v>
+      </c>
+      <c r="D8">
+        <v>3.996548266</v>
+      </c>
+      <c r="E8">
+        <v>2.6604902410000002</v>
+      </c>
+      <c r="F8">
+        <v>2.8115491549999998</v>
+      </c>
+      <c r="G8">
+        <v>2.873209525</v>
+      </c>
+      <c r="H8">
+        <v>4.7025005350000004</v>
+      </c>
+      <c r="I8">
+        <v>5.0889286299999998</v>
+      </c>
+      <c r="J8">
+        <v>6.1209047120000006</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>2E-3</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>2E-3</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9">
+        <v>6.905E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.6128227E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.7454339999999999E-3</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>308.35872800611429</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>308.35872800611429</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>269.27637405655503</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>269.27637405655503</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="2">
         <v>269.27637405655503</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10" s="2">
         <v>269.27637405655503</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="3">
         <v>269.27999999999997</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I10" s="3">
         <v>269.27999999999997</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J10" s="3">
         <v>269.27999999999997</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K10" s="3">
         <v>269.27999999999997</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L10" s="3">
         <v>269.27999999999997</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M10" s="3">
         <v>269.27999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>154.17936400305715</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>154.17936400305715</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>224.57649596316688</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>224.57649596316688</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>224.57649596316688</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>224.57649596316688</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="3">
         <v>224.58</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="3">
         <v>224.58</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J11" s="3">
         <v>224.58</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K11" s="3">
         <v>224.58</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L11" s="5">
         <v>209.5154</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M11" s="5">
         <v>209.5154</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6">
-        <v>205.08889415300001</v>
-      </c>
-      <c r="C11" s="6">
-        <v>226.83184598399998</v>
-      </c>
-      <c r="D11" s="6">
-        <v>230.542509266</v>
-      </c>
-      <c r="E11" s="6">
-        <v>191.65362004799999</v>
-      </c>
-      <c r="F11" s="6">
-        <v>328.48105138100004</v>
-      </c>
-      <c r="G11" s="6">
-        <v>287.67875391900003</v>
-      </c>
-      <c r="H11" s="6">
-        <v>331.66660360200001</v>
-      </c>
-      <c r="I11" s="6">
-        <v>333.08736821799999</v>
-      </c>
-      <c r="J11" s="6">
-        <v>470.44279985499998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="10">
+        <v>212.05490463300001</v>
+      </c>
+      <c r="C12" s="10">
+        <v>237.477427742</v>
+      </c>
+      <c r="D12" s="10">
+        <v>239.11339173300001</v>
+      </c>
+      <c r="E12" s="10">
+        <v>198.74349890000002</v>
+      </c>
+      <c r="F12" s="10">
+        <v>337.03655141499996</v>
+      </c>
+      <c r="G12" s="10">
+        <v>293.36100764700001</v>
+      </c>
+      <c r="H12" s="10">
+        <v>342.35702047299998</v>
+      </c>
+      <c r="I12" s="10">
+        <v>346.100347548</v>
+      </c>
+      <c r="J12" s="10">
+        <v>489.25079224199999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="7">
-        <v>188.396517921</v>
-      </c>
-      <c r="C12" s="7">
-        <v>210.216848661</v>
-      </c>
-      <c r="D12" s="7">
-        <v>206.02960629200001</v>
-      </c>
-      <c r="E12" s="7">
-        <v>165.09180391000001</v>
-      </c>
-      <c r="F12" s="7">
-        <v>288.97649550400001</v>
-      </c>
-      <c r="G12" s="7">
-        <v>258.69492188100003</v>
-      </c>
-      <c r="H12" s="7">
-        <v>284.13292924400002</v>
-      </c>
-      <c r="I12" s="7">
-        <v>274.24694932099999</v>
-      </c>
-      <c r="J12" s="7">
-        <v>404.22657192399998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
+      <c r="B13">
+        <v>193.07020080000001</v>
+      </c>
+      <c r="C13">
+        <v>218.72607653</v>
+      </c>
+      <c r="D13">
+        <v>210.219318668</v>
+      </c>
+      <c r="E13">
+        <v>169.25350654600001</v>
+      </c>
+      <c r="F13">
+        <v>293.786203817</v>
+      </c>
+      <c r="G13">
+        <v>261.08552665299999</v>
+      </c>
+      <c r="H13">
+        <v>288.636152568</v>
+      </c>
+      <c r="I13">
+        <v>279.75047140700002</v>
+      </c>
+      <c r="J13">
+        <v>418.14599949199999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="7">
-        <v>16.692376232000001</v>
-      </c>
-      <c r="C13" s="7">
-        <v>16.614997322999997</v>
-      </c>
-      <c r="D13" s="7">
-        <v>24.512902973999996</v>
-      </c>
-      <c r="E13" s="7">
-        <v>26.561816137999998</v>
-      </c>
-      <c r="F13" s="7">
-        <v>39.504555877000001</v>
-      </c>
-      <c r="G13" s="7">
-        <v>28.983832037999999</v>
-      </c>
-      <c r="H13" s="7">
-        <v>47.533674357999999</v>
-      </c>
-      <c r="I13" s="7">
-        <v>58.840418897000006</v>
-      </c>
-      <c r="J13" s="7">
-        <v>66.216227930999992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="B14">
+        <v>17.040236423000003</v>
+      </c>
+      <c r="C14">
+        <v>16.657241212000002</v>
+      </c>
+      <c r="D14">
+        <v>26.618683066999999</v>
+      </c>
+      <c r="E14">
+        <v>26.626498356000003</v>
+      </c>
+      <c r="F14">
+        <v>39.714420600999993</v>
+      </c>
+      <c r="G14">
+        <v>29.210373999000002</v>
+      </c>
+      <c r="H14">
+        <v>48.201525496000002</v>
+      </c>
+      <c r="I14">
+        <v>59.697518007000006</v>
+      </c>
+      <c r="J14">
+        <v>67.272862754000002</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="A15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.9444674099999999</v>
+      </c>
+      <c r="C15">
+        <v>2.0941100000000001</v>
+      </c>
+      <c r="D15">
+        <v>2.2753899980000001</v>
+      </c>
+      <c r="E15">
+        <v>2.863493998</v>
+      </c>
+      <c r="F15">
+        <v>3.5359269969999998</v>
+      </c>
+      <c r="G15">
+        <v>3.0651069949999998</v>
+      </c>
+      <c r="H15">
+        <v>5.5193424090000001</v>
+      </c>
+      <c r="I15">
+        <v>6.652358134</v>
+      </c>
+      <c r="J15">
+        <v>3.8319299959999999</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/tables/VRML_management_history.xlsx
+++ b/doc/tables/VRML_management_history.xlsx
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -617,32 +617,32 @@
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10">
-        <v>15.957828368000003</v>
-      </c>
-      <c r="C4" s="10">
-        <v>19.19076055</v>
-      </c>
-      <c r="D4" s="10">
-        <v>14.854865627000001</v>
-      </c>
-      <c r="E4" s="10">
-        <v>11.128733288000001</v>
-      </c>
-      <c r="F4" s="10">
-        <v>14.520705443999999</v>
-      </c>
-      <c r="G4" s="10">
-        <v>12.774068973</v>
-      </c>
-      <c r="H4" s="10">
-        <v>21.284937983000003</v>
-      </c>
-      <c r="I4" s="10">
-        <v>23.612898744999999</v>
-      </c>
-      <c r="J4" s="10">
-        <v>26.891223343</v>
+      <c r="B4">
+        <v>15.249187881000001</v>
+      </c>
+      <c r="C4">
+        <v>18.694921457</v>
+      </c>
+      <c r="D4">
+        <v>14.149005886000001</v>
+      </c>
+      <c r="E4">
+        <v>10.504073128000002</v>
+      </c>
+      <c r="F4">
+        <v>13.471785277999999</v>
+      </c>
+      <c r="G4">
+        <v>12.103826680000001</v>
+      </c>
+      <c r="H4">
+        <v>20.602144877000001</v>
+      </c>
+      <c r="I4">
+        <v>22.948637797</v>
+      </c>
+      <c r="J4">
+        <v>25.695856503000002</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -653,31 +653,31 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>4.2208766730000002</v>
+        <v>4.2092349420000001</v>
       </c>
       <c r="C5">
-        <v>4.8845030339999997</v>
+        <v>4.8672359539999999</v>
       </c>
       <c r="D5">
-        <v>2.6750009179999998</v>
+        <v>2.6569098059999998</v>
       </c>
       <c r="E5">
-        <v>2.9707335719999999</v>
+        <v>2.9496996360000001</v>
       </c>
       <c r="F5">
-        <v>5.0663585649999998</v>
+        <v>5.0175686429999997</v>
       </c>
       <c r="G5">
-        <v>4.5897512130000004</v>
+        <v>4.5489877779999999</v>
       </c>
       <c r="H5">
-        <v>6.5573322190000001</v>
+        <v>6.4900402110000002</v>
       </c>
       <c r="I5">
-        <v>7.7476158799999997</v>
+        <v>7.630987287</v>
       </c>
       <c r="J5">
-        <v>7.9633027949999997</v>
+        <v>7.8841050680000002</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -688,31 +688,31 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>6.5099953040000003</v>
+        <v>6.101510019</v>
       </c>
       <c r="C6">
-        <v>9.4302280649999997</v>
+        <v>9.1498084370000008</v>
       </c>
       <c r="D6">
-        <v>6.642596502</v>
+        <v>6.3047681310000003</v>
       </c>
       <c r="E6">
-        <v>4.2995934370000004</v>
+        <v>3.9485168939999999</v>
       </c>
       <c r="F6">
-        <v>5.3150448389999996</v>
+        <v>4.6526362670000001</v>
       </c>
       <c r="G6">
-        <v>4.005105125</v>
+        <v>3.6893570389999999</v>
       </c>
       <c r="H6">
-        <v>9.0758563980000009</v>
+        <v>8.7976447980000003</v>
       </c>
       <c r="I6">
-        <v>9.4776576630000005</v>
+        <v>9.1994460629999999</v>
       </c>
       <c r="J6">
-        <v>10.042918278</v>
+        <v>9.2524440489999993</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -723,31 +723,31 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>1.2044755410000001</v>
+        <v>1.0010529029999999</v>
       </c>
       <c r="C7">
-        <v>1.0625501230000001</v>
+        <v>0.91056403900000005</v>
       </c>
       <c r="D7">
-        <v>1.5385199409999999</v>
+        <v>1.2793095059999999</v>
       </c>
       <c r="E7">
-        <v>1.195916038</v>
+        <v>0.95995894400000004</v>
       </c>
       <c r="F7">
-        <v>1.327752885</v>
+        <v>1.1406763470000001</v>
       </c>
       <c r="G7">
-        <v>1.23695311</v>
+        <v>0.99728770099999997</v>
       </c>
       <c r="H7">
-        <v>0.92312060399999996</v>
+        <v>0.73130381</v>
       </c>
       <c r="I7">
-        <v>1.2969511380000001</v>
+        <v>1.1505956959999999</v>
       </c>
       <c r="J7">
-        <v>2.764097558</v>
+        <v>2.496598257</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -758,31 +758,31 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>4.0204808500000002</v>
+        <v>3.935390017</v>
       </c>
       <c r="C8">
-        <v>3.8134793280000001</v>
+        <v>3.7673130270000001</v>
       </c>
       <c r="D8">
-        <v>3.996548266</v>
+        <v>3.9058184429999998</v>
       </c>
       <c r="E8">
-        <v>2.6604902410000002</v>
+        <v>2.6438976540000003</v>
       </c>
       <c r="F8">
-        <v>2.8115491549999998</v>
+        <v>2.6609040209999999</v>
       </c>
       <c r="G8">
-        <v>2.873209525</v>
+        <v>2.7991441620000002</v>
       </c>
       <c r="H8">
-        <v>4.7025005350000004</v>
+        <v>4.5570278310000001</v>
       </c>
       <c r="I8">
-        <v>5.0889286299999998</v>
+        <v>4.9658633170000002</v>
       </c>
       <c r="J8">
-        <v>6.1209047120000006</v>
+        <v>6.0627091290000008</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -904,31 +904,31 @@
         <v>6</v>
       </c>
       <c r="B12" s="10">
-        <v>212.05490463300001</v>
+        <v>210.31004203399996</v>
       </c>
       <c r="C12" s="10">
-        <v>237.477427742</v>
+        <v>235.21579864099999</v>
       </c>
       <c r="D12" s="10">
-        <v>239.11339173300001</v>
+        <v>237.074402177</v>
       </c>
       <c r="E12" s="10">
-        <v>198.74349890000002</v>
+        <v>197.04260851699999</v>
       </c>
       <c r="F12" s="10">
-        <v>337.03655141499996</v>
+        <v>334.98417319199996</v>
       </c>
       <c r="G12" s="10">
-        <v>293.36100764700001</v>
+        <v>292.37527859700003</v>
       </c>
       <c r="H12" s="10">
-        <v>342.35702047299998</v>
+        <v>341.20708119999995</v>
       </c>
       <c r="I12" s="10">
-        <v>346.100347548</v>
+        <v>344.453927615</v>
       </c>
       <c r="J12" s="10">
-        <v>489.25079224199999</v>
+        <v>484.96701131999998</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -936,31 +936,31 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>193.07020080000001</v>
+        <v>191.43732836199999</v>
       </c>
       <c r="C13">
-        <v>218.72607653</v>
+        <v>216.479694747</v>
       </c>
       <c r="D13">
-        <v>210.219318668</v>
+        <v>208.19767995699999</v>
       </c>
       <c r="E13">
-        <v>169.25350654600001</v>
+        <v>167.57198866100001</v>
       </c>
       <c r="F13">
-        <v>293.786203817</v>
+        <v>291.77875828399999</v>
       </c>
       <c r="G13">
-        <v>261.08552665299999</v>
+        <v>260.16175313100001</v>
       </c>
       <c r="H13">
-        <v>288.636152568</v>
+        <v>287.49309342599997</v>
       </c>
       <c r="I13">
-        <v>279.75047140700002</v>
+        <v>278.157520347</v>
       </c>
       <c r="J13">
-        <v>418.14599949199999</v>
+        <v>413.946043062</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -968,31 +968,31 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>17.040236423000003</v>
+        <v>16.928246262000002</v>
       </c>
       <c r="C14">
-        <v>16.657241212000002</v>
+        <v>16.641993894000002</v>
       </c>
       <c r="D14">
-        <v>26.618683066999999</v>
+        <v>26.601332221999996</v>
       </c>
       <c r="E14">
-        <v>26.626498356000003</v>
+        <v>26.607125858</v>
       </c>
       <c r="F14">
-        <v>39.714420600999993</v>
+        <v>39.669487910999997</v>
       </c>
       <c r="G14">
-        <v>29.210373999000002</v>
+        <v>29.148418471000003</v>
       </c>
       <c r="H14">
-        <v>48.201525496000002</v>
+        <v>48.194645365</v>
       </c>
       <c r="I14">
-        <v>59.697518007000006</v>
+        <v>59.644049134000007</v>
       </c>
       <c r="J14">
-        <v>67.272862754000002</v>
+        <v>67.189038262000011</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
